--- a/medicine/Handicap/Gabrielle_(film,_2013)/Gabrielle_(film,_2013).xlsx
+++ b/medicine/Handicap/Gabrielle_(film,_2013)/Gabrielle_(film,_2013).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabrielle est un mélodrame canadien écrit et réalisé par Louise Archambault, sorti en 2013. Le film est inspiré de la comédie romantique L'Autre Sœur réalisée par Garry Marshall en 1999.
-Il est sélectionné pour représenter le Canada aux Oscars du cinéma 2014 dans la catégorie meilleur film en langue étrangère[1].
+Il est sélectionné pour représenter le Canada aux Oscars du cinéma 2014 dans la catégorie meilleur film en langue étrangère.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabrielle et Martin, deux jeunes gens qui se sont rencontrés au centre de loisirs dans la chorale « Les Muses de Montréal », sont fous amoureux l'un de l'autre. Cependant, Gabrielle et Martin sont deux personnes ayant une déficience intellectuelle et leur histoire d'amour n'est pas bien vue par leur entourage notamment la mère de Martin. Tandis qu'ils se préparent à un spectacle important où ils doivent chanter avec Robert Charlebois, Gabrielle essaye de prouver son autonomie pour gagner son indépendance. Elle rêve de vivre en couple avec Martin dans un appartement.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titre : Gabrielle
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gabrielle Marion-Rivard : Gabrielle
 Alexandre Landry : Martin
@@ -637,10 +655,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
-Le tournage a eu lieu entre 28 mai et 15 juillet 2012 au Centre récréatif, culturel et sportif Saint-Zotique situé dans le quartier Saint-Henri à Montréal et à Laval au Québec[2],[3]. Il est à noter que l'actrice principale est elle-même atteinte du  Syndrome de Williams[4].
-Sortie
-Gabrielle a été sélectionné en août 2013 au Festival international du film de Locarno 2013 en Suisse où il a remporté le prix du public avec des revenus de 30 000 francs suisses, soit 24 215 euros. Lors de son avant-première mondiale, également à Locarno, il a attiré 6 000 spectateurs[5].
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a eu lieu entre 28 mai et 15 juillet 2012 au Centre récréatif, culturel et sportif Saint-Zotique situé dans le quartier Saint-Henri à Montréal et à Laval au Québec,. Il est à noter que l'actrice principale est elle-même atteinte du  Syndrome de Williams.
 </t>
         </is>
       </c>
@@ -666,12 +687,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Autour du film</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Les images de l'école indienne ont été tournées a l'école Jeunes musiciens du monde, Kalkeri Sangeet Vidyalaya dans le Karnataka en Inde.</t>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabrielle a été sélectionné en août 2013 au Festival international du film de Locarno 2013 en Suisse où il a remporté le prix du public avec des revenus de 30 000 francs suisses, soit 24 215 euros. Lors de son avant-première mondiale, également à Locarno, il a attiré 6 000 spectateurs.
+</t>
         </is>
       </c>
     </row>
@@ -696,10 +724,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Autour du film</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les images de l'école indienne ont été tournées a l'école Jeunes musiciens du monde, Kalkeri Sangeet Vidyalaya dans le Karnataka en Inde.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -722,13 +756,46 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gabrielle_(film,_2013)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_(film,_2013)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Récompenses
-Festival du film francophone d'Angoulême 2013 :
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Festival du film francophone d'Angoulême 2013 :
 Valois Magelis pour Louise Archambault
 Valois du meilleur acteur décerné à Alexandre Landry
 Festival du film canadien de Dieppe 2013 :
@@ -738,9 +805,43 @@
 Festival international du film francophone de Namur 2013 : Prix du public long métrage fiction de la ville de Namur
 Festival du film de Gijón 2013 : Prix du meilleur acteur pour Alexandre Landry
 Vancouver Film Critics Circle Awards 2014 : Meilleur acteur dans un second rôle dans un film canadien pour Alexandre Landry
-Prix Écrans canadiens 2014 : Meilleur film et Meilleure actrice pour Gabrielle Marion-Rivard
-Nominations et sélections
-AFI Fest 2013
+Prix Écrans canadiens 2014 : Meilleur film et Meilleure actrice pour Gabrielle Marion-Rivard</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gabrielle_(film,_2013)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabrielle_(film,_2013)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nominations et sélections</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>AFI Fest 2013
 Festival international du film de Toronto 2013 : sélection « Special Presentations »
 Festival international du film de Vancouver 2013
 Festival international du film de Palm Springs 2014
